--- a/planilha-mari-5/TIN Collaboration teste 2.xlsx
+++ b/planilha-mari-5/TIN Collaboration teste 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolidar-planilha-weg\planilas-mari-weg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolidar-planilha-weg\planilha-mari-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38238C5C-19DE-4832-B2FC-2B82D8ECDB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676F158-9FD0-4913-854C-7D1BC51B5700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,17 @@
     <sheet name="Jardel" sheetId="7" r:id="rId4"/>
     <sheet name="Thomas" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
   <si>
     <t>Epic</t>
   </si>
@@ -189,9 +178,6 @@
     <t>dez/25</t>
   </si>
   <si>
-    <t>jan/26</t>
-  </si>
-  <si>
     <t>Atividades DTI_Suporte</t>
   </si>
   <si>
@@ -314,12 +300,21 @@
   <si>
     <t>1000028826 - ZEST-Rotech Services-WEGNET Integration</t>
   </si>
+  <si>
+    <t>jan/26</t>
+  </si>
+  <si>
+    <t>fev/26</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,50 +903,773 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="241">
+  <dxfs count="242">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF538DD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1078,114 +1796,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1311,114 +1921,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1544,142 +2046,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1804,114 +2176,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2010,270 +2274,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2289,149 +2289,150 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T23" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T23" totalsRowShown="0" headerRowDxfId="241" dataDxfId="240">
   <autoFilter ref="A1:T23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="198"/>
-    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="197"/>
-    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="195"/>
-    <tableColumn id="23" xr3:uid="{BC236957-04A8-4FEC-8204-F7BD5F4969A4}" name="Estimated effort" dataDxfId="194"/>
-    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="193">
+    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="238"/>
+    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="236"/>
+    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="235"/>
+    <tableColumn id="23" xr3:uid="{BC236957-04A8-4FEC-8204-F7BD5F4969A4}" name="Estimated effort" dataDxfId="234"/>
+    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="233">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="189"/>
-    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="188"/>
-    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="187"/>
-    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="186"/>
-    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="185"/>
-    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="184"/>
-    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="183"/>
-    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="182"/>
-    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="181"/>
-    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="232"/>
+    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="231"/>
+    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="230"/>
+    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="229"/>
+    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="228"/>
+    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="227"/>
+    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="226"/>
+    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="225"/>
+    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="224"/>
+    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="223"/>
+    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="222"/>
+    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="221"/>
+    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1487AFAB-D12A-487F-9815-C3DDF17D25E9}" name="Tabela1456725" displayName="Tabela1456725" ref="A1:Z32" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
-  <autoFilter ref="A1:Z32" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{01209A68-7F85-4C28-AFB5-81C5B0EC7A37}" name="Epic" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{66517A9E-46E1-41DF-9F0B-17AB54123296}" name="Ações" dataDxfId="160"/>
-    <tableColumn id="16" xr3:uid="{92F7750A-D683-45B5-80BF-2568989D936C}" name="Status" dataDxfId="159"/>
-    <tableColumn id="3" xr3:uid="{67DDF4A4-1CB4-4009-BCDB-046B5F84434E}" name="Due Date" dataDxfId="158"/>
-    <tableColumn id="4" xr3:uid="{CA9093F9-48BC-4FA1-8F7A-68895670946A}" name="Assignee" dataDxfId="157"/>
-    <tableColumn id="26" xr3:uid="{8B283F34-2401-433E-BF9E-46632B6408A9}" name="Estimated effort" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{DA3B2E9F-6814-447A-ABDD-B51650B1F538}" name="Planned effort" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1487AFAB-D12A-487F-9815-C3DDF17D25E9}" name="Tabela1456725" displayName="Tabela1456725" ref="A1:AA32" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
+  <autoFilter ref="A1:AA32" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{01209A68-7F85-4C28-AFB5-81C5B0EC7A37}" name="Epic" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{66517A9E-46E1-41DF-9F0B-17AB54123296}" name="Ações" dataDxfId="216"/>
+    <tableColumn id="16" xr3:uid="{92F7750A-D683-45B5-80BF-2568989D936C}" name="Status" dataDxfId="215"/>
+    <tableColumn id="3" xr3:uid="{67DDF4A4-1CB4-4009-BCDB-046B5F84434E}" name="Due Date" dataDxfId="214"/>
+    <tableColumn id="4" xr3:uid="{CA9093F9-48BC-4FA1-8F7A-68895670946A}" name="Assignee" dataDxfId="213"/>
+    <tableColumn id="26" xr3:uid="{8B283F34-2401-433E-BF9E-46632B6408A9}" name="Estimated effort" dataDxfId="212"/>
+    <tableColumn id="5" xr3:uid="{DA3B2E9F-6814-447A-ABDD-B51650B1F538}" name="Planned effort" dataDxfId="211">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{917CBACF-F867-4934-9025-B36CB10603F2}" name="jul/24" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{FBFFE0A8-C6E4-409D-B23A-DF2E274C4084}" name="ago/24" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{284C8EFC-524F-4249-B0A3-46E07BCD0C6F}" name="set/24" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{B1B43394-E80B-493C-90C0-CCC233B09963}" name="out/24" dataDxfId="151"/>
-    <tableColumn id="12" xr3:uid="{297447F5-FC07-4D69-A994-F56BBE329C04}" name="nov/24" dataDxfId="150"/>
-    <tableColumn id="13" xr3:uid="{63D90C2A-07A2-428E-A98A-BC63F2B4DB88}" name="dez/24" dataDxfId="149"/>
-    <tableColumn id="14" xr3:uid="{0161802C-C4F0-4DC6-A5DF-0CBDAFE3EC56}" name="jan/25" dataDxfId="148"/>
-    <tableColumn id="15" xr3:uid="{4622BD16-94DE-42BA-AB00-AEDAEB6DAAB3}" name="fev/25" dataDxfId="147"/>
-    <tableColumn id="19" xr3:uid="{6E9E22F5-E9B1-428A-8E88-E9956E21ED68}" name="mar/25" dataDxfId="146"/>
-    <tableColumn id="21" xr3:uid="{C371C2C0-26B8-4188-9D83-B9F02BF26874}" name="abr/25" dataDxfId="145"/>
-    <tableColumn id="22" xr3:uid="{0279FDF5-E694-4716-8D32-683FA8E40DC7}" name="mai/25" dataDxfId="144"/>
-    <tableColumn id="20" xr3:uid="{01504503-6E36-42E2-9D08-552B1C4DA841}" name="jun/25" dataDxfId="143"/>
-    <tableColumn id="18" xr3:uid="{6981EBCE-7629-47D1-9EC5-76635D7EEC11}" name="jul/25" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{7CECE26F-F2E1-4D1C-BE7F-2F5C5C6C8949}" name="ago/25" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{AC3CED15-CFF9-4CE9-93BD-6AD7114C2285}" name="set/25" dataDxfId="140"/>
-    <tableColumn id="23" xr3:uid="{4421CF49-AB56-4301-BE99-45FCBA458FE9}" name="out/25" dataDxfId="139"/>
-    <tableColumn id="24" xr3:uid="{F1E3BB55-ED52-4ABB-A642-0180E60B91A1}" name="nov/25" dataDxfId="138"/>
-    <tableColumn id="25" xr3:uid="{C5C6F9DA-C654-4668-9412-C46C2E27CCB5}" name="dez/25" dataDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{453C1F02-B3C0-420A-8706-84820C436FC0}" name="jan/26" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{917CBACF-F867-4934-9025-B36CB10603F2}" name="jul/24" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{FBFFE0A8-C6E4-409D-B23A-DF2E274C4084}" name="ago/24" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{284C8EFC-524F-4249-B0A3-46E07BCD0C6F}" name="set/24" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{B1B43394-E80B-493C-90C0-CCC233B09963}" name="out/24" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{297447F5-FC07-4D69-A994-F56BBE329C04}" name="nov/24" dataDxfId="206"/>
+    <tableColumn id="13" xr3:uid="{63D90C2A-07A2-428E-A98A-BC63F2B4DB88}" name="dez/24" dataDxfId="205"/>
+    <tableColumn id="14" xr3:uid="{0161802C-C4F0-4DC6-A5DF-0CBDAFE3EC56}" name="jan/25" dataDxfId="204"/>
+    <tableColumn id="15" xr3:uid="{4622BD16-94DE-42BA-AB00-AEDAEB6DAAB3}" name="fev/25" dataDxfId="203"/>
+    <tableColumn id="19" xr3:uid="{6E9E22F5-E9B1-428A-8E88-E9956E21ED68}" name="mar/25" dataDxfId="202"/>
+    <tableColumn id="21" xr3:uid="{C371C2C0-26B8-4188-9D83-B9F02BF26874}" name="abr/25" dataDxfId="201"/>
+    <tableColumn id="22" xr3:uid="{0279FDF5-E694-4716-8D32-683FA8E40DC7}" name="mai/25" dataDxfId="200"/>
+    <tableColumn id="20" xr3:uid="{01504503-6E36-42E2-9D08-552B1C4DA841}" name="jun/25" dataDxfId="199"/>
+    <tableColumn id="18" xr3:uid="{6981EBCE-7629-47D1-9EC5-76635D7EEC11}" name="jul/25" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{7CECE26F-F2E1-4D1C-BE7F-2F5C5C6C8949}" name="ago/25" dataDxfId="197"/>
+    <tableColumn id="7" xr3:uid="{AC3CED15-CFF9-4CE9-93BD-6AD7114C2285}" name="set/25" dataDxfId="196"/>
+    <tableColumn id="23" xr3:uid="{4421CF49-AB56-4301-BE99-45FCBA458FE9}" name="out/25" dataDxfId="195"/>
+    <tableColumn id="24" xr3:uid="{F1E3BB55-ED52-4ABB-A642-0180E60B91A1}" name="nov/25" dataDxfId="194"/>
+    <tableColumn id="25" xr3:uid="{C5C6F9DA-C654-4668-9412-C46C2E27CCB5}" name="dez/25" dataDxfId="193"/>
+    <tableColumn id="17" xr3:uid="{B00F94A8-6EA1-4A54-B1C0-9BAF7B1B236C}" name="jan/26" dataDxfId="192"/>
+    <tableColumn id="27" xr3:uid="{8C9FB46B-37EF-4485-9F51-6E4030143374}" name="fev/26" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A94C4A-C1A4-4112-856E-92FC8D7969DB}" name="Tabela145672" displayName="Tabela145672" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A94C4A-C1A4-4112-856E-92FC8D7969DB}" name="Tabela145672" displayName="Tabela145672" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
   <autoFilter ref="A1:Z23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{D0BFE29A-C08D-4432-A0D1-F5BE5FA9F7C1}" name="Epic" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{8C671275-798D-4FAE-B5BD-30E3E1A48122}" name="Ações" dataDxfId="112"/>
-    <tableColumn id="16" xr3:uid="{87C1349B-8437-416B-A33A-8FC6819705F2}" name="Status" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{DD7467F0-B52A-4287-98BB-B87528290064}" name="Due Date" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{F324EBCD-A36A-4F07-A779-792658877228}" name="Assignee" dataDxfId="109"/>
-    <tableColumn id="26" xr3:uid="{8DE983D0-027C-4450-A1DC-946435E1A13E}" name="Estimated effort" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{12DD7B93-535D-43AB-9973-CAE08773A991}" name="Planned effort" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{D0BFE29A-C08D-4432-A0D1-F5BE5FA9F7C1}" name="Epic" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{8C671275-798D-4FAE-B5BD-30E3E1A48122}" name="Ações" dataDxfId="187"/>
+    <tableColumn id="16" xr3:uid="{87C1349B-8437-416B-A33A-8FC6819705F2}" name="Status" dataDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{DD7467F0-B52A-4287-98BB-B87528290064}" name="Due Date" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{F324EBCD-A36A-4F07-A779-792658877228}" name="Assignee" dataDxfId="184"/>
+    <tableColumn id="26" xr3:uid="{8DE983D0-027C-4450-A1DC-946435E1A13E}" name="Estimated effort" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{12DD7B93-535D-43AB-9973-CAE08773A991}" name="Planned effort" dataDxfId="182">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02ADA71E-139A-44BD-9DBE-52E2397E9F99}" name="jul/24" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{66CDD522-0887-4D47-B9AB-D9120C8F8652}" name="ago/24" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{215A1C1D-4C92-4B36-A568-FC96B9E55386}" name="set/24" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{CBBF2992-344C-4265-8B19-EFC408719519}" name="out/24" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{48354FF2-5862-4C42-8872-067CDAF119B8}" name="nov/24" dataDxfId="102"/>
-    <tableColumn id="13" xr3:uid="{86BA7996-57D5-4CBC-89F0-179CE30E92B5}" name="dez/24" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{DD0DE629-DE11-4498-AFAA-0A90A34ECD15}" name="jan/25" dataDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{61B217CD-E5B3-4179-9B67-CD5D83039A82}" name="fev/25" dataDxfId="99"/>
-    <tableColumn id="19" xr3:uid="{12C2F4A2-445E-45C3-9AB8-532E78409774}" name="mar/25" dataDxfId="98"/>
-    <tableColumn id="21" xr3:uid="{6A279519-CE46-4260-A34A-5B0F223C1AEF}" name="abr/25" dataDxfId="97"/>
-    <tableColumn id="22" xr3:uid="{7D22944D-1A3C-417D-AABF-C1E11C55463F}" name="mai/25" dataDxfId="96"/>
-    <tableColumn id="20" xr3:uid="{53AAF552-291E-493E-8085-12CAB74C1603}" name="jun/25" dataDxfId="95"/>
-    <tableColumn id="18" xr3:uid="{EE160A5B-3CE9-4ADF-858B-5BC8EB110BB8}" name="jul/25" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{62845F62-5ED9-470F-9FDE-79786F4314EE}" name="ago/25" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{D3F062AF-DFE8-4C18-8946-1A4BF9A0BCE8}" name="set/25" dataDxfId="92"/>
-    <tableColumn id="23" xr3:uid="{B1C5C80E-32AB-4A68-96EA-AF37C4ECD963}" name="out/25" dataDxfId="91"/>
-    <tableColumn id="24" xr3:uid="{E7C40D8D-53C9-4E93-8BEC-EBE80515EFA0}" name="nov/25" dataDxfId="90"/>
-    <tableColumn id="25" xr3:uid="{05ACD4D3-D719-4C00-9722-A69C1E8DA9A7}" name="dez/25" dataDxfId="89"/>
-    <tableColumn id="17" xr3:uid="{7A812258-3D63-4F32-B797-9EFE1CF6C9E0}" name="Nota" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{02ADA71E-139A-44BD-9DBE-52E2397E9F99}" name="jul/24" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{66CDD522-0887-4D47-B9AB-D9120C8F8652}" name="ago/24" dataDxfId="180"/>
+    <tableColumn id="10" xr3:uid="{215A1C1D-4C92-4B36-A568-FC96B9E55386}" name="set/24" dataDxfId="179"/>
+    <tableColumn id="11" xr3:uid="{CBBF2992-344C-4265-8B19-EFC408719519}" name="out/24" dataDxfId="178"/>
+    <tableColumn id="12" xr3:uid="{48354FF2-5862-4C42-8872-067CDAF119B8}" name="nov/24" dataDxfId="177"/>
+    <tableColumn id="13" xr3:uid="{86BA7996-57D5-4CBC-89F0-179CE30E92B5}" name="dez/24" dataDxfId="176"/>
+    <tableColumn id="14" xr3:uid="{DD0DE629-DE11-4498-AFAA-0A90A34ECD15}" name="jan/25" dataDxfId="175"/>
+    <tableColumn id="15" xr3:uid="{61B217CD-E5B3-4179-9B67-CD5D83039A82}" name="fev/25" dataDxfId="174"/>
+    <tableColumn id="19" xr3:uid="{12C2F4A2-445E-45C3-9AB8-532E78409774}" name="mar/25" dataDxfId="173"/>
+    <tableColumn id="21" xr3:uid="{6A279519-CE46-4260-A34A-5B0F223C1AEF}" name="abr/25" dataDxfId="172"/>
+    <tableColumn id="22" xr3:uid="{7D22944D-1A3C-417D-AABF-C1E11C55463F}" name="mai/25" dataDxfId="171"/>
+    <tableColumn id="20" xr3:uid="{53AAF552-291E-493E-8085-12CAB74C1603}" name="jun/25" dataDxfId="170"/>
+    <tableColumn id="18" xr3:uid="{EE160A5B-3CE9-4ADF-858B-5BC8EB110BB8}" name="jul/25" dataDxfId="169"/>
+    <tableColumn id="6" xr3:uid="{62845F62-5ED9-470F-9FDE-79786F4314EE}" name="ago/25" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{D3F062AF-DFE8-4C18-8946-1A4BF9A0BCE8}" name="set/25" dataDxfId="167"/>
+    <tableColumn id="23" xr3:uid="{B1C5C80E-32AB-4A68-96EA-AF37C4ECD963}" name="out/25" dataDxfId="166"/>
+    <tableColumn id="24" xr3:uid="{E7C40D8D-53C9-4E93-8BEC-EBE80515EFA0}" name="nov/25" dataDxfId="165"/>
+    <tableColumn id="25" xr3:uid="{05ACD4D3-D719-4C00-9722-A69C1E8DA9A7}" name="dez/25" dataDxfId="164"/>
+    <tableColumn id="17" xr3:uid="{7A812258-3D63-4F32-B797-9EFE1CF6C9E0}" name="Nota" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
   <autoFilter ref="A1:Z23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="68"/>
-    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="65"/>
-    <tableColumn id="26" xr3:uid="{7BC9F0AA-006F-42E4-A33B-D4009B68631E}" name="Estimated effort" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="159"/>
+    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="156"/>
+    <tableColumn id="26" xr3:uid="{7BC9F0AA-006F-42E4-A33B-D4009B68631E}" name="Estimated effort" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="154">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="56"/>
-    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="54"/>
-    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="53"/>
-    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="52"/>
-    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{631FADD6-5D6F-4227-8B64-8DF1CD5E37C2}" name="ago/25" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{75C45859-3E26-4B6E-9A75-C8428CCA97B8}" name="set/25" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{8A7800BA-3CD6-4A83-BEBF-5AE3FF1D781B}" name="out/25" dataDxfId="47"/>
-    <tableColumn id="24" xr3:uid="{64C38EBA-0572-4482-A323-078F1D86FEFC}" name="nov/25" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="dez/25" dataDxfId="45"/>
-    <tableColumn id="25" xr3:uid="{52ABDA5C-8FA8-4D59-BCBD-6C0B42E314C2}" name="Nota" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="153"/>
+    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="150"/>
+    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="149"/>
+    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="148"/>
+    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="147"/>
+    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="146"/>
+    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="145"/>
+    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="144"/>
+    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="143"/>
+    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="142"/>
+    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{631FADD6-5D6F-4227-8B64-8DF1CD5E37C2}" name="ago/25" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{75C45859-3E26-4B6E-9A75-C8428CCA97B8}" name="set/25" dataDxfId="139"/>
+    <tableColumn id="23" xr3:uid="{8A7800BA-3CD6-4A83-BEBF-5AE3FF1D781B}" name="out/25" dataDxfId="138"/>
+    <tableColumn id="24" xr3:uid="{64C38EBA-0572-4482-A323-078F1D86FEFC}" name="nov/25" dataDxfId="137"/>
+    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="dez/25" dataDxfId="136"/>
+    <tableColumn id="25" xr3:uid="{52ABDA5C-8FA8-4D59-BCBD-6C0B42E314C2}" name="Nota" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{73520871-8519-4F69-99C7-ADB749126326}" name="Tabela1456724" displayName="Tabela1456724" ref="A1:Z28" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{73520871-8519-4F69-99C7-ADB749126326}" name="Tabela1456724" displayName="Tabela1456724" ref="A1:Z28" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <autoFilter ref="A1:Z28" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -2441,34 +2442,34 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{F7B1E8EA-C0EC-458C-BE1D-C9AAC078AC40}" name="Epic" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{AE5B099A-8CF9-4A5A-98FD-30B800510534}" name="Ações" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{2D90475A-D5BC-4CB2-858A-AAEA8DBCD03F}" name="Status" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{62D10A36-6221-4217-9B01-29C8D1055992}" name="Due Date" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1A6879A9-9799-4837-9BD6-F28346B95C2A}" name="Assignee" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{95502097-81FF-4227-B76B-75D5B47EDAB8}" name="Estimated effort" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{17C94D3B-8E75-4800-A1F4-1F1988CAAB97}" name="Planned effort" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{F7B1E8EA-C0EC-458C-BE1D-C9AAC078AC40}" name="Epic" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{AE5B099A-8CF9-4A5A-98FD-30B800510534}" name="Ações" dataDxfId="131"/>
+    <tableColumn id="16" xr3:uid="{2D90475A-D5BC-4CB2-858A-AAEA8DBCD03F}" name="Status" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{62D10A36-6221-4217-9B01-29C8D1055992}" name="Due Date" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{1A6879A9-9799-4837-9BD6-F28346B95C2A}" name="Assignee" dataDxfId="128"/>
+    <tableColumn id="26" xr3:uid="{95502097-81FF-4227-B76B-75D5B47EDAB8}" name="Estimated effort" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{17C94D3B-8E75-4800-A1F4-1F1988CAAB97}" name="Planned effort" dataDxfId="126">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{452C87B7-00A2-49F6-B03C-09B1516BF610}" name="jul/24" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9D968673-E47A-4771-ACDB-1F92433F2F49}" name="ago/24" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{06622939-253A-4451-9DF1-AEBDBBA61691}" name="set/24" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{FD9CB1DD-EDF9-42FC-9707-AE7332F0860E}" name="out/24" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C11EE033-846E-4BF8-B958-62468811794F}" name="nov/24" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{665BFD75-9AA2-4E96-ADDE-9AE9F9D127BD}" name="dez/24" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{518E6267-8E42-43E3-A70F-F9B5F74C3A5D}" name="jan/25" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{59E259D1-C4C8-4310-AA50-AE6BDDAD209B}" name="fev/25" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{9A7ADD22-96F1-4C43-A976-D9612862FA01}" name="mar/25" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{51B1E82E-5665-407F-8866-78296B84F2BC}" name="abr/25" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{6C7FFD66-47DC-4EB5-AB00-BCD0B62EC755}" name="mai/25" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{FE0847CB-FF6C-474A-B100-D4A8BF538F92}" name="jun/25" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{E352B795-3F0A-4277-B11A-F584AF2B6AD2}" name="jul/25" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A09C9E60-8686-4233-A1BC-CFC5A282979E}" name="ago/25" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F2213C78-02EB-4765-B1A1-2C0398B8FCC0}" name="set/25" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{242DEB15-224E-4660-9784-7BD0207173DD}" name="out/25" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{2F378A4B-5F7F-4B88-94E1-BE64D0451DDD}" name="nov/25" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{82B623CC-2A7F-472A-B629-207037C10DC9}" name="dez/25" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{9E9D8F62-32C3-4D66-A66D-846E7A302BD3}" name="Nota" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{452C87B7-00A2-49F6-B03C-09B1516BF610}" name="jul/24" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{9D968673-E47A-4771-ACDB-1F92433F2F49}" name="ago/24" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{06622939-253A-4451-9DF1-AEBDBBA61691}" name="set/24" dataDxfId="123"/>
+    <tableColumn id="11" xr3:uid="{FD9CB1DD-EDF9-42FC-9707-AE7332F0860E}" name="out/24" dataDxfId="122"/>
+    <tableColumn id="12" xr3:uid="{C11EE033-846E-4BF8-B958-62468811794F}" name="nov/24" dataDxfId="121"/>
+    <tableColumn id="13" xr3:uid="{665BFD75-9AA2-4E96-ADDE-9AE9F9D127BD}" name="dez/24" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{518E6267-8E42-43E3-A70F-F9B5F74C3A5D}" name="jan/25" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{59E259D1-C4C8-4310-AA50-AE6BDDAD209B}" name="fev/25" dataDxfId="118"/>
+    <tableColumn id="19" xr3:uid="{9A7ADD22-96F1-4C43-A976-D9612862FA01}" name="mar/25" dataDxfId="117"/>
+    <tableColumn id="21" xr3:uid="{51B1E82E-5665-407F-8866-78296B84F2BC}" name="abr/25" dataDxfId="116"/>
+    <tableColumn id="22" xr3:uid="{6C7FFD66-47DC-4EB5-AB00-BCD0B62EC755}" name="mai/25" dataDxfId="115"/>
+    <tableColumn id="20" xr3:uid="{FE0847CB-FF6C-474A-B100-D4A8BF538F92}" name="jun/25" dataDxfId="114"/>
+    <tableColumn id="18" xr3:uid="{E352B795-3F0A-4277-B11A-F584AF2B6AD2}" name="jul/25" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{A09C9E60-8686-4233-A1BC-CFC5A282979E}" name="ago/25" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{F2213C78-02EB-4765-B1A1-2C0398B8FCC0}" name="set/25" dataDxfId="111"/>
+    <tableColumn id="23" xr3:uid="{242DEB15-224E-4660-9784-7BD0207173DD}" name="out/25" dataDxfId="110"/>
+    <tableColumn id="24" xr3:uid="{2F378A4B-5F7F-4B88-94E1-BE64D0451DDD}" name="nov/25" dataDxfId="109"/>
+    <tableColumn id="25" xr3:uid="{82B623CC-2A7F-472A-B629-207037C10DC9}" name="dez/25" dataDxfId="108"/>
+    <tableColumn id="17" xr3:uid="{9E9D8F62-32C3-4D66-A66D-846E7A302BD3}" name="Nota" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2778,7 +2779,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
@@ -2791,7 +2792,7 @@
     <col min="12" max="20" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2912,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -3020,7 +3021,7 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3079,7 @@
       </c>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3136,7 +3137,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -3193,7 +3194,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="6" t="e">
         <f>SUM(#REF!)</f>
@@ -3213,7 +3214,7 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F9" s="11"/>
       <c r="G9" s="6" t="e">
         <f>SUM(#REF!)</f>
@@ -3233,7 +3234,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3292,7 @@
       </c>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3349,7 +3350,7 @@
       </c>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -3407,7 +3408,7 @@
       </c>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="C13" s="2"/>
       <c r="D13" s="19"/>
@@ -3426,7 +3427,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" s="19"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
@@ -3443,7 +3444,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" s="19"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
@@ -3460,7 +3461,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" s="19"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
@@ -3477,7 +3478,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D17" s="19"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
@@ -3494,7 +3495,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="D18" s="19"/>
       <c r="G18" s="6"/>
@@ -3512,7 +3513,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D19" s="19"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
@@ -3529,7 +3530,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D20" s="19"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
@@ -3546,7 +3547,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D21" s="19"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
@@ -3563,7 +3564,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" s="19"/>
       <c r="G22" s="6"/>
@@ -3581,7 +3582,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" s="19"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
@@ -3598,7 +3599,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -3614,7 +3615,7 @@
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -3630,7 +3631,7 @@
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="6"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -3646,7 +3647,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="6"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -3662,7 +3663,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="6"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -3678,7 +3679,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="6"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -3694,7 +3695,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -3713,141 +3714,141 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A7:A13">
-    <cfRule type="expression" dxfId="240" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>IF($A7="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>IF($A7="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="3">
+    <cfRule type="expression" dxfId="104" priority="3">
       <formula>IF($A7="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="4">
+    <cfRule type="expression" dxfId="103" priority="4">
       <formula>IF($B7=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B30">
-    <cfRule type="expression" dxfId="236" priority="33">
+    <cfRule type="expression" dxfId="102" priority="33">
       <formula>IF($A24="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="34">
+    <cfRule type="expression" dxfId="101" priority="34">
       <formula>IF($A24="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="35">
+    <cfRule type="expression" dxfId="100" priority="35">
       <formula>IF($A24="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="36">
+    <cfRule type="expression" dxfId="99" priority="36">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="232" priority="5">
+    <cfRule type="expression" dxfId="98" priority="5">
       <formula>IF($A18="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="6">
+    <cfRule type="expression" dxfId="97" priority="6">
       <formula>IF($A18="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="7">
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>IF($A18="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="8">
+    <cfRule type="expression" dxfId="95" priority="8">
       <formula>IF($B18=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:N20">
-    <cfRule type="expression" dxfId="228" priority="143">
+    <cfRule type="expression" dxfId="94" priority="143">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="142">
+    <cfRule type="expression" dxfId="93" priority="142">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="141">
+    <cfRule type="expression" dxfId="92" priority="141">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="144">
+    <cfRule type="expression" dxfId="91" priority="144">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:O15 R13:T21 H16:Q19 A21:B21 H21:Q21 H22:T23 A23:C23">
-    <cfRule type="expression" dxfId="224" priority="180">
+    <cfRule type="expression" dxfId="90" priority="180">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="178">
+    <cfRule type="expression" dxfId="89" priority="178">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="179">
+    <cfRule type="expression" dxfId="88" priority="179">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:T23 H16:Q19 H13:O15 R13:T21 A21:B21 H21:Q21 A23:C23">
-    <cfRule type="expression" dxfId="221" priority="177">
+    <cfRule type="expression" dxfId="87" priority="177">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:T30">
-    <cfRule type="expression" dxfId="220" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>IF($A24="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="18">
+    <cfRule type="expression" dxfId="85" priority="18">
       <formula>IF($A24="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="19">
+    <cfRule type="expression" dxfId="84" priority="19">
       <formula>IF($A24="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>IF($B24=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:Q20">
-    <cfRule type="expression" dxfId="216" priority="145">
+    <cfRule type="expression" dxfId="82" priority="145">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="146">
+    <cfRule type="expression" dxfId="81" priority="146">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="147">
+    <cfRule type="expression" dxfId="80" priority="147">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="148">
+    <cfRule type="expression" dxfId="79" priority="148">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:T23">
-    <cfRule type="expression" dxfId="212" priority="137">
+    <cfRule type="expression" dxfId="78" priority="137">
       <formula>IF($A23="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="138">
+    <cfRule type="expression" dxfId="77" priority="138">
       <formula>IF($A23="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="139">
+    <cfRule type="expression" dxfId="76" priority="139">
       <formula>IF($A23="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="140">
+    <cfRule type="expression" dxfId="75" priority="140">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q19">
-    <cfRule type="expression" dxfId="208" priority="63">
+    <cfRule type="expression" dxfId="74" priority="63">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="61">
+    <cfRule type="expression" dxfId="73" priority="61">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="62">
+    <cfRule type="expression" dxfId="72" priority="62">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="44">
+    <cfRule type="expression" dxfId="71" priority="44">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="expression" dxfId="204" priority="43">
+    <cfRule type="expression" dxfId="70" priority="43">
       <formula>IF($A18="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="42">
+    <cfRule type="expression" dxfId="69" priority="42">
       <formula>IF($A18="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="41">
+    <cfRule type="expression" dxfId="68" priority="41">
       <formula>IF($A18="Esforço total atribuído",1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3861,14 +3862,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CD8726-B30B-4400-9738-90F4E3A3D657}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17:Z18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
@@ -3882,7 +3883,7 @@
     <col min="10" max="25" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3958,20 +3959,23 @@
       <c r="Y1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="Z1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(Tabela1456725[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>1368</v>
+        <v>1338</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:Z2" si="0">H3-H4</f>
+        <f t="shared" ref="H2:AA3" si="0">H3-H4</f>
         <v>36</v>
       </c>
       <c r="I2" s="11">
@@ -3980,7 +3984,7 @@
       </c>
       <c r="J2" s="11">
         <f t="shared" si="0"/>
-        <v>-208</v>
+        <v>-238</v>
       </c>
       <c r="K2" s="11">
         <f t="shared" si="0"/>
@@ -4044,10 +4048,14 @@
       </c>
       <c r="Z2" s="11">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4109,11 +4117,16 @@
       <c r="Y3" s="21">
         <v>120</v>
       </c>
-      <c r="Z3" s="21">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="Z3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -4124,10 +4137,10 @@
       <c r="F4" s="9"/>
       <c r="G4" s="18">
         <f>SUM(Tabela1456725[[#This Row],[ago/24]:[dez/25]])</f>
-        <v>1356</v>
+        <v>1386</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:Z4" si="1">SUM(H5:H37)</f>
+        <f t="shared" ref="H4:Y4" si="1">SUM(H5:H37)</f>
         <v>140</v>
       </c>
       <c r="I4" s="8">
@@ -4136,7 +4149,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="1"/>
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
@@ -4198,21 +4211,25 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Z4" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Z4" s="11">
+        <f t="shared" ref="Z4:AA4" si="2">Z5-Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -4278,21 +4295,25 @@
       <c r="Y5" s="11">
         <v>4</v>
       </c>
-      <c r="Z5" s="8">
-        <f t="shared" ref="Z5" si="2">SUM(Z6:Z38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:AA5" si="3">Z6-Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -4358,20 +4379,24 @@
       <c r="Y6" s="11">
         <v>20</v>
       </c>
-      <c r="Z6" s="8">
-        <f t="shared" ref="Z6" si="3">SUM(Z7:Z39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="11">
+        <f t="shared" ref="Z6:AA6" si="4">Z7-Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -4437,17 +4462,21 @@
       <c r="Y7" s="11">
         <v>4</v>
       </c>
-      <c r="Z7" s="8">
-        <f t="shared" ref="Z7" si="4">SUM(Z8:Z40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Z7" s="11">
+        <f t="shared" ref="Z7:AA7" si="5">Z8-Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>2024</v>
@@ -4516,17 +4545,21 @@
       <c r="Y8" s="11">
         <v>0</v>
       </c>
-      <c r="Z8" s="8">
-        <f t="shared" ref="Z8" si="5">SUM(Z9:Z41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Z8" s="11">
+        <f t="shared" ref="Z8:AA8" si="6">Z9-Z10</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>2024</v>
@@ -4595,20 +4628,24 @@
       <c r="Y9" s="11">
         <v>0</v>
       </c>
-      <c r="Z9" s="8">
-        <f t="shared" ref="Z9" si="6">SUM(Z10:Z42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Z9" s="11">
+        <f t="shared" ref="Z9:AA9" si="7">Z10-Z11</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>2024</v>
@@ -4675,17 +4712,21 @@
       <c r="Y10" s="11">
         <v>0</v>
       </c>
-      <c r="Z10" s="8">
-        <f t="shared" ref="Z10" si="7">SUM(Z11:Z43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="Z10" s="11">
+        <f t="shared" ref="Z10:AA10" si="8">Z11-Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>2024</v>
@@ -4752,17 +4793,21 @@
       <c r="Y11" s="11">
         <v>0</v>
       </c>
-      <c r="Z11" s="8">
-        <f t="shared" ref="Z11" si="8">SUM(Z12:Z44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Z11" s="11">
+        <f t="shared" ref="Z11:AA11" si="9">Z12-Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>2024</v>
@@ -4829,20 +4874,24 @@
       <c r="Y12" s="11">
         <v>0</v>
       </c>
-      <c r="Z12" s="8">
-        <f t="shared" ref="Z12" si="9">SUM(Z13:Z45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Z12" s="11">
+        <f t="shared" ref="Z12:AA12" si="10">Z13-Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -4908,17 +4957,21 @@
       <c r="Y13" s="11">
         <v>0</v>
       </c>
-      <c r="Z13" s="8">
-        <f t="shared" ref="Z13" si="10">SUM(Z14:Z46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Z13" s="11">
+        <f t="shared" ref="Z13:AA13" si="11">Z14-Z15</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <v>2024</v>
@@ -4987,17 +5040,21 @@
       <c r="Y14" s="11">
         <v>0</v>
       </c>
-      <c r="Z14" s="8">
-        <f t="shared" ref="Z14" si="11">SUM(Z15:Z47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Z14" s="11">
+        <f t="shared" ref="Z14:AA14" si="12">Z15-Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>2024</v>
@@ -5066,17 +5123,21 @@
       <c r="Y15" s="11">
         <v>0</v>
       </c>
-      <c r="Z15" s="8">
-        <f t="shared" ref="Z15" si="12">SUM(Z16:Z48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Z15" s="11">
+        <f t="shared" ref="Z15:AA15" si="13">Z16-Z17</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
         <v>2024</v>
@@ -5145,17 +5206,21 @@
       <c r="Y16" s="11">
         <v>0</v>
       </c>
-      <c r="Z16" s="8">
-        <f t="shared" ref="Z16" si="13">SUM(Z17:Z49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="Z16" s="11">
+        <f t="shared" ref="Z16:AA16" si="14">Z17-Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>2024</v>
@@ -5222,17 +5287,21 @@
       <c r="Y17" s="11">
         <v>0</v>
       </c>
-      <c r="Z17" s="8">
-        <f t="shared" ref="Z17:Z18" si="14">SUM(Z18:Z50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="Z17" s="11">
+        <f t="shared" ref="Z17:AA17" si="15">Z18-Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>2025</v>
@@ -5299,35 +5368,97 @@
       <c r="Y18" s="11">
         <v>0</v>
       </c>
-      <c r="Z18" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="F19" s="17"/>
-      <c r="G19" s="6"/>
+      <c r="Z18" s="11">
+        <f t="shared" ref="Z18:AA19" si="16">Z19-Z20</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="17">
+        <v>22</v>
+      </c>
+      <c r="G19" s="17">
+        <f>SUM(Tabela14567[[#This Row],[ago/24]:[dez/25]])</f>
+        <v>0</v>
+      </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>30</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F20" s="17"/>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
@@ -5348,9 +5479,10 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F21" s="17"/>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
@@ -5371,9 +5503,10 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F22" s="17"/>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
@@ -5394,9 +5527,10 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F23" s="17"/>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
@@ -5417,9 +5551,10 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -5439,9 +5574,10 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5461,9 +5597,10 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5483,9 +5620,10 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -5505,9 +5643,10 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -5527,9 +5666,10 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5549,9 +5689,10 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -5571,9 +5712,10 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -5593,9 +5735,10 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
@@ -5616,63 +5759,64 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="expression" dxfId="179" priority="9">
+    <cfRule type="expression" dxfId="67" priority="9">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="10">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="11">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>IF($B13=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A32">
-    <cfRule type="expression" dxfId="175" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>IF($B20=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="171" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="6">
+    <cfRule type="expression" dxfId="58" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="8">
+    <cfRule type="expression" dxfId="56" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:Z3">
-    <cfRule type="expression" dxfId="167" priority="1">
+  <conditionalFormatting sqref="U3:Y3">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5696,7 +5840,7 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3:Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
@@ -5710,7 +5854,7 @@
     <col min="10" max="25" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +5934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5872,7 +6016,7 @@
       </c>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -5936,7 +6080,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -6023,19 +6167,19 @@
       </c>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>2024</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6101,19 +6245,19 @@
       </c>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>2024</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6179,18 +6323,18 @@
       </c>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>2024</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6256,18 +6400,18 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6333,18 +6477,18 @@
       </c>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="17">
         <v>1108</v>
@@ -6409,18 +6553,18 @@
       </c>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D10" s="1">
         <v>2024</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6486,18 +6630,18 @@
       </c>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6563,18 +6707,18 @@
       </c>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1">
         <v>2024</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6640,18 +6784,18 @@
       </c>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1">
         <v>2024</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="17">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6717,7 +6861,7 @@
       </c>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" s="6"/>
       <c r="G14" s="6">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -6777,7 +6921,7 @@
       </c>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -6788,7 +6932,7 @@
         <v>2025</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="17">
         <v>120</v>
@@ -6851,7 +6995,7 @@
       </c>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6862,7 +7006,7 @@
         <v>2025</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
@@ -6925,7 +7069,7 @@
       </c>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6936,7 +7080,7 @@
         <v>2025</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="17">
         <v>60</v>
@@ -6999,7 +7143,7 @@
       </c>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -7010,7 +7154,7 @@
         <v>2025</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="17">
         <v>80</v>
@@ -7073,7 +7217,7 @@
       </c>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -7084,7 +7228,7 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="17">
         <v>100</v>
@@ -7147,7 +7291,7 @@
       </c>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="G20" s="6">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -7207,7 +7351,7 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="G21" s="6">
         <f>SUM(Tabela145672[[#This Row],[ago/24]:[dez/25]])</f>
@@ -7267,7 +7411,7 @@
       </c>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7289,7 +7433,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
@@ -7315,72 +7459,72 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A11:A15">
-    <cfRule type="expression" dxfId="135" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>IF($A11="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>IF($A11="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>IF($A11="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>IF($B11=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>IF($A17="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>IF($A17="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>IF($A17="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>IF($B17=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="expression" dxfId="127" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>IF($A22="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>IF($A22="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>IF($A22="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>IF($B22=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="123" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="8">
+    <cfRule type="expression" dxfId="36" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7401,7 +7545,7 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
@@ -7415,7 +7559,7 @@
     <col min="10" max="24" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7495,7 +7639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7577,7 +7721,7 @@
       </c>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -7641,7 +7785,7 @@
       </c>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -7728,19 +7872,19 @@
       </c>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="17">
         <v>320</v>
@@ -7805,19 +7949,19 @@
       </c>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="17">
         <v>210</v>
@@ -7882,19 +8026,19 @@
       </c>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="17">
         <v>85</v>
@@ -7959,18 +8103,18 @@
       </c>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="17">
         <v>102</v>
@@ -8035,18 +8179,18 @@
       </c>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>2024</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="17">
         <v>30</v>
@@ -8111,21 +8255,21 @@
       </c>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>2024</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="17">
         <v>12</v>
@@ -8190,18 +8334,18 @@
       </c>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="17">
         <v>48</v>
@@ -8266,18 +8410,18 @@
       </c>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>2024</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="17">
         <v>600</v>
@@ -8342,18 +8486,18 @@
       </c>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>2024</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="17">
         <v>230</v>
@@ -8418,18 +8562,18 @@
       </c>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <v>2024</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="17">
         <v>16</v>
@@ -8494,18 +8638,18 @@
       </c>
       <c r="Z14" s="11"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>2024</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="17">
         <v>408</v>
@@ -8570,7 +8714,7 @@
       </c>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="G16" s="6">
         <f>SUM(Tabela14567[[#This Row],[ago/24]:[dez/25]])</f>
@@ -8596,7 +8740,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -8607,7 +8751,7 @@
         <v>2025</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="17">
         <v>420</v>
@@ -8670,7 +8814,7 @@
       </c>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -8692,7 +8836,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
@@ -8715,7 +8859,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
@@ -8738,7 +8882,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
@@ -8761,7 +8905,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -8783,7 +8927,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
@@ -8809,58 +8953,58 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A11:A13 A23">
-    <cfRule type="expression" dxfId="87" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>IF($A11="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>IF($A11="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>IF($A11="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>IF($B11=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A21">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>IF($A15="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>IF($A15="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>IF($A15="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>IF($B15=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="79" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8881,7 +9025,7 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
@@ -8895,7 +9039,7 @@
     <col min="10" max="25" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8975,7 +9119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -9057,7 +9201,7 @@
       </c>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -9121,7 +9265,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -9208,19 +9352,19 @@
       </c>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="17">
         <v>85</v>
@@ -9285,19 +9429,19 @@
       </c>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="17">
         <v>340</v>
@@ -9362,18 +9506,18 @@
       </c>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="17">
         <v>255</v>
@@ -9438,18 +9582,18 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="17">
         <v>24</v>
@@ -9514,15 +9658,15 @@
       </c>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="6">
@@ -9575,15 +9719,15 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="6">
@@ -9636,21 +9780,21 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="17">
         <v>12</v>
@@ -9703,18 +9847,18 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1">
         <v>2024</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="6">
@@ -9777,18 +9921,18 @@
       </c>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>2024</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="6">
@@ -9851,18 +9995,18 @@
       </c>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1">
         <v>2024</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="6">
@@ -9925,18 +10069,18 @@
       </c>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>2024</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="17">
         <v>540</v>
@@ -10001,18 +10145,18 @@
       </c>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
         <v>2024</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="6">
@@ -10075,15 +10219,15 @@
       </c>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="6">
@@ -10136,16 +10280,16 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="6">
@@ -10198,18 +10342,18 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>2024</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="17">
         <v>150</v>
@@ -10273,18 +10417,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="17">
         <v>80</v>
@@ -10348,18 +10492,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>2024</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -10420,7 +10564,7 @@
       </c>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -10431,7 +10575,7 @@
         <v>2025</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="17">
         <v>60</v>
@@ -10496,7 +10640,7 @@
       </c>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -10507,7 +10651,7 @@
         <v>2025</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="17">
         <v>260</v>
@@ -10570,7 +10714,7 @@
       </c>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -10581,7 +10725,7 @@
         <v>2025</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="17">
         <v>120</v>
@@ -10644,7 +10788,7 @@
       </c>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -10655,7 +10799,7 @@
         <v>2025</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="17">
         <v>100</v>
@@ -10718,7 +10862,7 @@
       </c>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G26" s="6">
         <f>SUM(Tabela1456724[[#This Row],[ago/24]:[dez/25]])</f>
         <v>0</v>
@@ -10777,7 +10921,7 @@
       </c>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="G27" s="6">
         <f>SUM(Tabela1456724[[#This Row],[ago/24]:[dez/25]])</f>
@@ -10839,7 +10983,7 @@
       </c>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="C28" s="2"/>
       <c r="G28" s="6">
@@ -10902,7 +11046,7 @@
       </c>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -10924,58 +11068,58 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>IF($A17="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="30">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>IF($A17="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="13" priority="31">
       <formula>IF($A17="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="12" priority="32">
       <formula>IF($B17=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>IF($A22="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>IF($A22="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>IF($A22="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>IF($B22=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11143,15 +11287,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AD39B2-FED1-46F1-B570-2B06EBE1DD70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AD39B2-FED1-46F1-B570-2B06EBE1DD70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/planilha-mari-5/TIN Collaboration teste 2.xlsx
+++ b/planilha-mari-5/TIN Collaboration teste 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolidar-planilha-weg\planilha-mari-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676F158-9FD0-4913-854C-7D1BC51B5700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623819DD-1A95-45C9-B44A-0A84C79DF25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
   <si>
     <t>Epic</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>kkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>mar/252</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="242">
+  <dxfs count="243">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2289,150 +2296,151 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T23" totalsRowShown="0" headerRowDxfId="241" dataDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T23" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241">
   <autoFilter ref="A1:T23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="238"/>
-    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="237"/>
-    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="236"/>
-    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="235"/>
-    <tableColumn id="23" xr3:uid="{BC236957-04A8-4FEC-8204-F7BD5F4969A4}" name="Estimated effort" dataDxfId="234"/>
-    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="233">
+    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="240"/>
+    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="239"/>
+    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="236"/>
+    <tableColumn id="23" xr3:uid="{BC236957-04A8-4FEC-8204-F7BD5F4969A4}" name="Estimated effort" dataDxfId="235"/>
+    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="234">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="232"/>
-    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="231"/>
-    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="230"/>
-    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="229"/>
-    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="228"/>
-    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="227"/>
-    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="226"/>
-    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="225"/>
-    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="224"/>
-    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="223"/>
-    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="222"/>
-    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="221"/>
-    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="233"/>
+    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="232"/>
+    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="231"/>
+    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="230"/>
+    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="229"/>
+    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="228"/>
+    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="227"/>
+    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="226"/>
+    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="225"/>
+    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="224"/>
+    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="223"/>
+    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="222"/>
+    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1487AFAB-D12A-487F-9815-C3DDF17D25E9}" name="Tabela1456725" displayName="Tabela1456725" ref="A1:AA32" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
-  <autoFilter ref="A1:AA32" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{01209A68-7F85-4C28-AFB5-81C5B0EC7A37}" name="Epic" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{66517A9E-46E1-41DF-9F0B-17AB54123296}" name="Ações" dataDxfId="216"/>
-    <tableColumn id="16" xr3:uid="{92F7750A-D683-45B5-80BF-2568989D936C}" name="Status" dataDxfId="215"/>
-    <tableColumn id="3" xr3:uid="{67DDF4A4-1CB4-4009-BCDB-046B5F84434E}" name="Due Date" dataDxfId="214"/>
-    <tableColumn id="4" xr3:uid="{CA9093F9-48BC-4FA1-8F7A-68895670946A}" name="Assignee" dataDxfId="213"/>
-    <tableColumn id="26" xr3:uid="{8B283F34-2401-433E-BF9E-46632B6408A9}" name="Estimated effort" dataDxfId="212"/>
-    <tableColumn id="5" xr3:uid="{DA3B2E9F-6814-447A-ABDD-B51650B1F538}" name="Planned effort" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1487AFAB-D12A-487F-9815-C3DDF17D25E9}" name="Tabela1456725" displayName="Tabela1456725" ref="A1:AB32" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
+  <autoFilter ref="A1:AB32" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{01209A68-7F85-4C28-AFB5-81C5B0EC7A37}" name="Epic" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{66517A9E-46E1-41DF-9F0B-17AB54123296}" name="Ações" dataDxfId="217"/>
+    <tableColumn id="16" xr3:uid="{92F7750A-D683-45B5-80BF-2568989D936C}" name="Status" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{67DDF4A4-1CB4-4009-BCDB-046B5F84434E}" name="Due Date" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{CA9093F9-48BC-4FA1-8F7A-68895670946A}" name="Assignee" dataDxfId="214"/>
+    <tableColumn id="26" xr3:uid="{8B283F34-2401-433E-BF9E-46632B6408A9}" name="Estimated effort" dataDxfId="213"/>
+    <tableColumn id="5" xr3:uid="{DA3B2E9F-6814-447A-ABDD-B51650B1F538}" name="Planned effort" dataDxfId="212">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{917CBACF-F867-4934-9025-B36CB10603F2}" name="jul/24" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{FBFFE0A8-C6E4-409D-B23A-DF2E274C4084}" name="ago/24" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{284C8EFC-524F-4249-B0A3-46E07BCD0C6F}" name="set/24" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{B1B43394-E80B-493C-90C0-CCC233B09963}" name="out/24" dataDxfId="207"/>
-    <tableColumn id="12" xr3:uid="{297447F5-FC07-4D69-A994-F56BBE329C04}" name="nov/24" dataDxfId="206"/>
-    <tableColumn id="13" xr3:uid="{63D90C2A-07A2-428E-A98A-BC63F2B4DB88}" name="dez/24" dataDxfId="205"/>
-    <tableColumn id="14" xr3:uid="{0161802C-C4F0-4DC6-A5DF-0CBDAFE3EC56}" name="jan/25" dataDxfId="204"/>
-    <tableColumn id="15" xr3:uid="{4622BD16-94DE-42BA-AB00-AEDAEB6DAAB3}" name="fev/25" dataDxfId="203"/>
-    <tableColumn id="19" xr3:uid="{6E9E22F5-E9B1-428A-8E88-E9956E21ED68}" name="mar/25" dataDxfId="202"/>
-    <tableColumn id="21" xr3:uid="{C371C2C0-26B8-4188-9D83-B9F02BF26874}" name="abr/25" dataDxfId="201"/>
-    <tableColumn id="22" xr3:uid="{0279FDF5-E694-4716-8D32-683FA8E40DC7}" name="mai/25" dataDxfId="200"/>
-    <tableColumn id="20" xr3:uid="{01504503-6E36-42E2-9D08-552B1C4DA841}" name="jun/25" dataDxfId="199"/>
-    <tableColumn id="18" xr3:uid="{6981EBCE-7629-47D1-9EC5-76635D7EEC11}" name="jul/25" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{7CECE26F-F2E1-4D1C-BE7F-2F5C5C6C8949}" name="ago/25" dataDxfId="197"/>
-    <tableColumn id="7" xr3:uid="{AC3CED15-CFF9-4CE9-93BD-6AD7114C2285}" name="set/25" dataDxfId="196"/>
-    <tableColumn id="23" xr3:uid="{4421CF49-AB56-4301-BE99-45FCBA458FE9}" name="out/25" dataDxfId="195"/>
-    <tableColumn id="24" xr3:uid="{F1E3BB55-ED52-4ABB-A642-0180E60B91A1}" name="nov/25" dataDxfId="194"/>
-    <tableColumn id="25" xr3:uid="{C5C6F9DA-C654-4668-9412-C46C2E27CCB5}" name="dez/25" dataDxfId="193"/>
-    <tableColumn id="17" xr3:uid="{B00F94A8-6EA1-4A54-B1C0-9BAF7B1B236C}" name="jan/26" dataDxfId="192"/>
-    <tableColumn id="27" xr3:uid="{8C9FB46B-37EF-4485-9F51-6E4030143374}" name="fev/26" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{917CBACF-F867-4934-9025-B36CB10603F2}" name="jul/24" dataDxfId="211"/>
+    <tableColumn id="9" xr3:uid="{FBFFE0A8-C6E4-409D-B23A-DF2E274C4084}" name="ago/24" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{284C8EFC-524F-4249-B0A3-46E07BCD0C6F}" name="set/24" dataDxfId="209"/>
+    <tableColumn id="11" xr3:uid="{B1B43394-E80B-493C-90C0-CCC233B09963}" name="out/24" dataDxfId="208"/>
+    <tableColumn id="12" xr3:uid="{297447F5-FC07-4D69-A994-F56BBE329C04}" name="nov/24" dataDxfId="207"/>
+    <tableColumn id="13" xr3:uid="{63D90C2A-07A2-428E-A98A-BC63F2B4DB88}" name="dez/24" dataDxfId="206"/>
+    <tableColumn id="14" xr3:uid="{0161802C-C4F0-4DC6-A5DF-0CBDAFE3EC56}" name="jan/25" dataDxfId="205"/>
+    <tableColumn id="15" xr3:uid="{4622BD16-94DE-42BA-AB00-AEDAEB6DAAB3}" name="fev/25" dataDxfId="204"/>
+    <tableColumn id="19" xr3:uid="{6E9E22F5-E9B1-428A-8E88-E9956E21ED68}" name="mar/25" dataDxfId="203"/>
+    <tableColumn id="21" xr3:uid="{C371C2C0-26B8-4188-9D83-B9F02BF26874}" name="abr/25" dataDxfId="202"/>
+    <tableColumn id="22" xr3:uid="{0279FDF5-E694-4716-8D32-683FA8E40DC7}" name="mai/25" dataDxfId="201"/>
+    <tableColumn id="20" xr3:uid="{01504503-6E36-42E2-9D08-552B1C4DA841}" name="jun/25" dataDxfId="200"/>
+    <tableColumn id="18" xr3:uid="{6981EBCE-7629-47D1-9EC5-76635D7EEC11}" name="jul/25" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{7CECE26F-F2E1-4D1C-BE7F-2F5C5C6C8949}" name="ago/25" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{AC3CED15-CFF9-4CE9-93BD-6AD7114C2285}" name="set/25" dataDxfId="197"/>
+    <tableColumn id="23" xr3:uid="{4421CF49-AB56-4301-BE99-45FCBA458FE9}" name="out/25" dataDxfId="196"/>
+    <tableColumn id="24" xr3:uid="{F1E3BB55-ED52-4ABB-A642-0180E60B91A1}" name="nov/25" dataDxfId="195"/>
+    <tableColumn id="25" xr3:uid="{C5C6F9DA-C654-4668-9412-C46C2E27CCB5}" name="dez/25" dataDxfId="194"/>
+    <tableColumn id="17" xr3:uid="{B00F94A8-6EA1-4A54-B1C0-9BAF7B1B236C}" name="jan/26" dataDxfId="193"/>
+    <tableColumn id="27" xr3:uid="{8C9FB46B-37EF-4485-9F51-6E4030143374}" name="fev/26" dataDxfId="192"/>
+    <tableColumn id="28" xr3:uid="{FA13D833-8A99-4ED4-BF00-BBD42CFE6F02}" name="mar/252" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A94C4A-C1A4-4112-856E-92FC8D7969DB}" name="Tabela145672" displayName="Tabela145672" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A94C4A-C1A4-4112-856E-92FC8D7969DB}" name="Tabela145672" displayName="Tabela145672" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:Z23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{D0BFE29A-C08D-4432-A0D1-F5BE5FA9F7C1}" name="Epic" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{8C671275-798D-4FAE-B5BD-30E3E1A48122}" name="Ações" dataDxfId="187"/>
-    <tableColumn id="16" xr3:uid="{87C1349B-8437-416B-A33A-8FC6819705F2}" name="Status" dataDxfId="186"/>
-    <tableColumn id="3" xr3:uid="{DD7467F0-B52A-4287-98BB-B87528290064}" name="Due Date" dataDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{F324EBCD-A36A-4F07-A779-792658877228}" name="Assignee" dataDxfId="184"/>
-    <tableColumn id="26" xr3:uid="{8DE983D0-027C-4450-A1DC-946435E1A13E}" name="Estimated effort" dataDxfId="183"/>
-    <tableColumn id="5" xr3:uid="{12DD7B93-535D-43AB-9973-CAE08773A991}" name="Planned effort" dataDxfId="182">
+    <tableColumn id="1" xr3:uid="{D0BFE29A-C08D-4432-A0D1-F5BE5FA9F7C1}" name="Epic" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{8C671275-798D-4FAE-B5BD-30E3E1A48122}" name="Ações" dataDxfId="188"/>
+    <tableColumn id="16" xr3:uid="{87C1349B-8437-416B-A33A-8FC6819705F2}" name="Status" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{DD7467F0-B52A-4287-98BB-B87528290064}" name="Due Date" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{F324EBCD-A36A-4F07-A779-792658877228}" name="Assignee" dataDxfId="185"/>
+    <tableColumn id="26" xr3:uid="{8DE983D0-027C-4450-A1DC-946435E1A13E}" name="Estimated effort" dataDxfId="184"/>
+    <tableColumn id="5" xr3:uid="{12DD7B93-535D-43AB-9973-CAE08773A991}" name="Planned effort" dataDxfId="183">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02ADA71E-139A-44BD-9DBE-52E2397E9F99}" name="jul/24" dataDxfId="181"/>
-    <tableColumn id="9" xr3:uid="{66CDD522-0887-4D47-B9AB-D9120C8F8652}" name="ago/24" dataDxfId="180"/>
-    <tableColumn id="10" xr3:uid="{215A1C1D-4C92-4B36-A568-FC96B9E55386}" name="set/24" dataDxfId="179"/>
-    <tableColumn id="11" xr3:uid="{CBBF2992-344C-4265-8B19-EFC408719519}" name="out/24" dataDxfId="178"/>
-    <tableColumn id="12" xr3:uid="{48354FF2-5862-4C42-8872-067CDAF119B8}" name="nov/24" dataDxfId="177"/>
-    <tableColumn id="13" xr3:uid="{86BA7996-57D5-4CBC-89F0-179CE30E92B5}" name="dez/24" dataDxfId="176"/>
-    <tableColumn id="14" xr3:uid="{DD0DE629-DE11-4498-AFAA-0A90A34ECD15}" name="jan/25" dataDxfId="175"/>
-    <tableColumn id="15" xr3:uid="{61B217CD-E5B3-4179-9B67-CD5D83039A82}" name="fev/25" dataDxfId="174"/>
-    <tableColumn id="19" xr3:uid="{12C2F4A2-445E-45C3-9AB8-532E78409774}" name="mar/25" dataDxfId="173"/>
-    <tableColumn id="21" xr3:uid="{6A279519-CE46-4260-A34A-5B0F223C1AEF}" name="abr/25" dataDxfId="172"/>
-    <tableColumn id="22" xr3:uid="{7D22944D-1A3C-417D-AABF-C1E11C55463F}" name="mai/25" dataDxfId="171"/>
-    <tableColumn id="20" xr3:uid="{53AAF552-291E-493E-8085-12CAB74C1603}" name="jun/25" dataDxfId="170"/>
-    <tableColumn id="18" xr3:uid="{EE160A5B-3CE9-4ADF-858B-5BC8EB110BB8}" name="jul/25" dataDxfId="169"/>
-    <tableColumn id="6" xr3:uid="{62845F62-5ED9-470F-9FDE-79786F4314EE}" name="ago/25" dataDxfId="168"/>
-    <tableColumn id="7" xr3:uid="{D3F062AF-DFE8-4C18-8946-1A4BF9A0BCE8}" name="set/25" dataDxfId="167"/>
-    <tableColumn id="23" xr3:uid="{B1C5C80E-32AB-4A68-96EA-AF37C4ECD963}" name="out/25" dataDxfId="166"/>
-    <tableColumn id="24" xr3:uid="{E7C40D8D-53C9-4E93-8BEC-EBE80515EFA0}" name="nov/25" dataDxfId="165"/>
-    <tableColumn id="25" xr3:uid="{05ACD4D3-D719-4C00-9722-A69C1E8DA9A7}" name="dez/25" dataDxfId="164"/>
-    <tableColumn id="17" xr3:uid="{7A812258-3D63-4F32-B797-9EFE1CF6C9E0}" name="Nota" dataDxfId="163"/>
+    <tableColumn id="8" xr3:uid="{02ADA71E-139A-44BD-9DBE-52E2397E9F99}" name="jul/24" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{66CDD522-0887-4D47-B9AB-D9120C8F8652}" name="ago/24" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{215A1C1D-4C92-4B36-A568-FC96B9E55386}" name="set/24" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{CBBF2992-344C-4265-8B19-EFC408719519}" name="out/24" dataDxfId="179"/>
+    <tableColumn id="12" xr3:uid="{48354FF2-5862-4C42-8872-067CDAF119B8}" name="nov/24" dataDxfId="178"/>
+    <tableColumn id="13" xr3:uid="{86BA7996-57D5-4CBC-89F0-179CE30E92B5}" name="dez/24" dataDxfId="177"/>
+    <tableColumn id="14" xr3:uid="{DD0DE629-DE11-4498-AFAA-0A90A34ECD15}" name="jan/25" dataDxfId="176"/>
+    <tableColumn id="15" xr3:uid="{61B217CD-E5B3-4179-9B67-CD5D83039A82}" name="fev/25" dataDxfId="175"/>
+    <tableColumn id="19" xr3:uid="{12C2F4A2-445E-45C3-9AB8-532E78409774}" name="mar/25" dataDxfId="174"/>
+    <tableColumn id="21" xr3:uid="{6A279519-CE46-4260-A34A-5B0F223C1AEF}" name="abr/25" dataDxfId="173"/>
+    <tableColumn id="22" xr3:uid="{7D22944D-1A3C-417D-AABF-C1E11C55463F}" name="mai/25" dataDxfId="172"/>
+    <tableColumn id="20" xr3:uid="{53AAF552-291E-493E-8085-12CAB74C1603}" name="jun/25" dataDxfId="171"/>
+    <tableColumn id="18" xr3:uid="{EE160A5B-3CE9-4ADF-858B-5BC8EB110BB8}" name="jul/25" dataDxfId="170"/>
+    <tableColumn id="6" xr3:uid="{62845F62-5ED9-470F-9FDE-79786F4314EE}" name="ago/25" dataDxfId="169"/>
+    <tableColumn id="7" xr3:uid="{D3F062AF-DFE8-4C18-8946-1A4BF9A0BCE8}" name="set/25" dataDxfId="168"/>
+    <tableColumn id="23" xr3:uid="{B1C5C80E-32AB-4A68-96EA-AF37C4ECD963}" name="out/25" dataDxfId="167"/>
+    <tableColumn id="24" xr3:uid="{E7C40D8D-53C9-4E93-8BEC-EBE80515EFA0}" name="nov/25" dataDxfId="166"/>
+    <tableColumn id="25" xr3:uid="{05ACD4D3-D719-4C00-9722-A69C1E8DA9A7}" name="dez/25" dataDxfId="165"/>
+    <tableColumn id="17" xr3:uid="{7A812258-3D63-4F32-B797-9EFE1CF6C9E0}" name="Nota" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:Z23" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="159"/>
-    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="156"/>
-    <tableColumn id="26" xr3:uid="{7BC9F0AA-006F-42E4-A33B-D4009B68631E}" name="Estimated effort" dataDxfId="155"/>
-    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="154">
+    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="160"/>
+    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="157"/>
+    <tableColumn id="26" xr3:uid="{7BC9F0AA-006F-42E4-A33B-D4009B68631E}" name="Estimated effort" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="155">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="151"/>
-    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="150"/>
-    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="149"/>
-    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="148"/>
-    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="147"/>
-    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="146"/>
-    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="145"/>
-    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="144"/>
-    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="143"/>
-    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="142"/>
-    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{631FADD6-5D6F-4227-8B64-8DF1CD5E37C2}" name="ago/25" dataDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{75C45859-3E26-4B6E-9A75-C8428CCA97B8}" name="set/25" dataDxfId="139"/>
-    <tableColumn id="23" xr3:uid="{8A7800BA-3CD6-4A83-BEBF-5AE3FF1D781B}" name="out/25" dataDxfId="138"/>
-    <tableColumn id="24" xr3:uid="{64C38EBA-0572-4482-A323-078F1D86FEFC}" name="nov/25" dataDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="dez/25" dataDxfId="136"/>
-    <tableColumn id="25" xr3:uid="{52ABDA5C-8FA8-4D59-BCBD-6C0B42E314C2}" name="Nota" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="151"/>
+    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="150"/>
+    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="149"/>
+    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="148"/>
+    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="147"/>
+    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="146"/>
+    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="145"/>
+    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="144"/>
+    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="143"/>
+    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{631FADD6-5D6F-4227-8B64-8DF1CD5E37C2}" name="ago/25" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{75C45859-3E26-4B6E-9A75-C8428CCA97B8}" name="set/25" dataDxfId="140"/>
+    <tableColumn id="23" xr3:uid="{8A7800BA-3CD6-4A83-BEBF-5AE3FF1D781B}" name="out/25" dataDxfId="139"/>
+    <tableColumn id="24" xr3:uid="{64C38EBA-0572-4482-A323-078F1D86FEFC}" name="nov/25" dataDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="dez/25" dataDxfId="137"/>
+    <tableColumn id="25" xr3:uid="{52ABDA5C-8FA8-4D59-BCBD-6C0B42E314C2}" name="Nota" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{73520871-8519-4F69-99C7-ADB749126326}" name="Tabela1456724" displayName="Tabela1456724" ref="A1:Z28" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{73520871-8519-4F69-99C7-ADB749126326}" name="Tabela1456724" displayName="Tabela1456724" ref="A1:Z28" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A1:Z28" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
@@ -2442,34 +2450,34 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{F7B1E8EA-C0EC-458C-BE1D-C9AAC078AC40}" name="Epic" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{AE5B099A-8CF9-4A5A-98FD-30B800510534}" name="Ações" dataDxfId="131"/>
-    <tableColumn id="16" xr3:uid="{2D90475A-D5BC-4CB2-858A-AAEA8DBCD03F}" name="Status" dataDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{62D10A36-6221-4217-9B01-29C8D1055992}" name="Due Date" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{1A6879A9-9799-4837-9BD6-F28346B95C2A}" name="Assignee" dataDxfId="128"/>
-    <tableColumn id="26" xr3:uid="{95502097-81FF-4227-B76B-75D5B47EDAB8}" name="Estimated effort" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{17C94D3B-8E75-4800-A1F4-1F1988CAAB97}" name="Planned effort" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{F7B1E8EA-C0EC-458C-BE1D-C9AAC078AC40}" name="Epic" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{AE5B099A-8CF9-4A5A-98FD-30B800510534}" name="Ações" dataDxfId="132"/>
+    <tableColumn id="16" xr3:uid="{2D90475A-D5BC-4CB2-858A-AAEA8DBCD03F}" name="Status" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{62D10A36-6221-4217-9B01-29C8D1055992}" name="Due Date" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{1A6879A9-9799-4837-9BD6-F28346B95C2A}" name="Assignee" dataDxfId="129"/>
+    <tableColumn id="26" xr3:uid="{95502097-81FF-4227-B76B-75D5B47EDAB8}" name="Estimated effort" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{17C94D3B-8E75-4800-A1F4-1F1988CAAB97}" name="Planned effort" dataDxfId="127">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{452C87B7-00A2-49F6-B03C-09B1516BF610}" name="jul/24" dataDxfId="125"/>
-    <tableColumn id="9" xr3:uid="{9D968673-E47A-4771-ACDB-1F92433F2F49}" name="ago/24" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{06622939-253A-4451-9DF1-AEBDBBA61691}" name="set/24" dataDxfId="123"/>
-    <tableColumn id="11" xr3:uid="{FD9CB1DD-EDF9-42FC-9707-AE7332F0860E}" name="out/24" dataDxfId="122"/>
-    <tableColumn id="12" xr3:uid="{C11EE033-846E-4BF8-B958-62468811794F}" name="nov/24" dataDxfId="121"/>
-    <tableColumn id="13" xr3:uid="{665BFD75-9AA2-4E96-ADDE-9AE9F9D127BD}" name="dez/24" dataDxfId="120"/>
-    <tableColumn id="14" xr3:uid="{518E6267-8E42-43E3-A70F-F9B5F74C3A5D}" name="jan/25" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{59E259D1-C4C8-4310-AA50-AE6BDDAD209B}" name="fev/25" dataDxfId="118"/>
-    <tableColumn id="19" xr3:uid="{9A7ADD22-96F1-4C43-A976-D9612862FA01}" name="mar/25" dataDxfId="117"/>
-    <tableColumn id="21" xr3:uid="{51B1E82E-5665-407F-8866-78296B84F2BC}" name="abr/25" dataDxfId="116"/>
-    <tableColumn id="22" xr3:uid="{6C7FFD66-47DC-4EB5-AB00-BCD0B62EC755}" name="mai/25" dataDxfId="115"/>
-    <tableColumn id="20" xr3:uid="{FE0847CB-FF6C-474A-B100-D4A8BF538F92}" name="jun/25" dataDxfId="114"/>
-    <tableColumn id="18" xr3:uid="{E352B795-3F0A-4277-B11A-F584AF2B6AD2}" name="jul/25" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{A09C9E60-8686-4233-A1BC-CFC5A282979E}" name="ago/25" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{F2213C78-02EB-4765-B1A1-2C0398B8FCC0}" name="set/25" dataDxfId="111"/>
-    <tableColumn id="23" xr3:uid="{242DEB15-224E-4660-9784-7BD0207173DD}" name="out/25" dataDxfId="110"/>
-    <tableColumn id="24" xr3:uid="{2F378A4B-5F7F-4B88-94E1-BE64D0451DDD}" name="nov/25" dataDxfId="109"/>
-    <tableColumn id="25" xr3:uid="{82B623CC-2A7F-472A-B629-207037C10DC9}" name="dez/25" dataDxfId="108"/>
-    <tableColumn id="17" xr3:uid="{9E9D8F62-32C3-4D66-A66D-846E7A302BD3}" name="Nota" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{452C87B7-00A2-49F6-B03C-09B1516BF610}" name="jul/24" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{9D968673-E47A-4771-ACDB-1F92433F2F49}" name="ago/24" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{06622939-253A-4451-9DF1-AEBDBBA61691}" name="set/24" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{FD9CB1DD-EDF9-42FC-9707-AE7332F0860E}" name="out/24" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{C11EE033-846E-4BF8-B958-62468811794F}" name="nov/24" dataDxfId="122"/>
+    <tableColumn id="13" xr3:uid="{665BFD75-9AA2-4E96-ADDE-9AE9F9D127BD}" name="dez/24" dataDxfId="121"/>
+    <tableColumn id="14" xr3:uid="{518E6267-8E42-43E3-A70F-F9B5F74C3A5D}" name="jan/25" dataDxfId="120"/>
+    <tableColumn id="15" xr3:uid="{59E259D1-C4C8-4310-AA50-AE6BDDAD209B}" name="fev/25" dataDxfId="119"/>
+    <tableColumn id="19" xr3:uid="{9A7ADD22-96F1-4C43-A976-D9612862FA01}" name="mar/25" dataDxfId="118"/>
+    <tableColumn id="21" xr3:uid="{51B1E82E-5665-407F-8866-78296B84F2BC}" name="abr/25" dataDxfId="117"/>
+    <tableColumn id="22" xr3:uid="{6C7FFD66-47DC-4EB5-AB00-BCD0B62EC755}" name="mai/25" dataDxfId="116"/>
+    <tableColumn id="20" xr3:uid="{FE0847CB-FF6C-474A-B100-D4A8BF538F92}" name="jun/25" dataDxfId="115"/>
+    <tableColumn id="18" xr3:uid="{E352B795-3F0A-4277-B11A-F584AF2B6AD2}" name="jul/25" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{A09C9E60-8686-4233-A1BC-CFC5A282979E}" name="ago/25" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{F2213C78-02EB-4765-B1A1-2C0398B8FCC0}" name="set/25" dataDxfId="112"/>
+    <tableColumn id="23" xr3:uid="{242DEB15-224E-4660-9784-7BD0207173DD}" name="out/25" dataDxfId="111"/>
+    <tableColumn id="24" xr3:uid="{2F378A4B-5F7F-4B88-94E1-BE64D0451DDD}" name="nov/25" dataDxfId="110"/>
+    <tableColumn id="25" xr3:uid="{82B623CC-2A7F-472A-B629-207037C10DC9}" name="dez/25" dataDxfId="109"/>
+    <tableColumn id="17" xr3:uid="{9E9D8F62-32C3-4D66-A66D-846E7A302BD3}" name="Nota" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3714,141 +3722,141 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A7:A13">
-    <cfRule type="expression" dxfId="106" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>IF($A7="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>IF($A7="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3">
+    <cfRule type="expression" dxfId="105" priority="3">
       <formula>IF($A7="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>IF($B7=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B30">
-    <cfRule type="expression" dxfId="102" priority="33">
+    <cfRule type="expression" dxfId="103" priority="33">
       <formula>IF($A24="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="34">
+    <cfRule type="expression" dxfId="102" priority="34">
       <formula>IF($A24="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="35">
+    <cfRule type="expression" dxfId="101" priority="35">
       <formula>IF($A24="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="98" priority="5">
+    <cfRule type="expression" dxfId="99" priority="5">
       <formula>IF($A18="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>IF($A18="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="7">
+    <cfRule type="expression" dxfId="97" priority="7">
       <formula>IF($A18="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="8">
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>IF($B18=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:N20">
-    <cfRule type="expression" dxfId="94" priority="143">
+    <cfRule type="expression" dxfId="95" priority="143">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="142">
+    <cfRule type="expression" dxfId="94" priority="142">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="141">
+    <cfRule type="expression" dxfId="93" priority="141">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="144">
+    <cfRule type="expression" dxfId="92" priority="144">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:O15 R13:T21 H16:Q19 A21:B21 H21:Q21 H22:T23 A23:C23">
-    <cfRule type="expression" dxfId="90" priority="180">
+    <cfRule type="expression" dxfId="91" priority="180">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="178">
+    <cfRule type="expression" dxfId="90" priority="178">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="179">
+    <cfRule type="expression" dxfId="89" priority="179">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:T23 H16:Q19 H13:O15 R13:T21 A21:B21 H21:Q21 A23:C23">
-    <cfRule type="expression" dxfId="87" priority="177">
+    <cfRule type="expression" dxfId="88" priority="177">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:T30">
-    <cfRule type="expression" dxfId="86" priority="17">
+    <cfRule type="expression" dxfId="87" priority="17">
       <formula>IF($A24="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="18">
+    <cfRule type="expression" dxfId="86" priority="18">
       <formula>IF($A24="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="19">
+    <cfRule type="expression" dxfId="85" priority="19">
       <formula>IF($A24="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="20">
+    <cfRule type="expression" dxfId="84" priority="20">
       <formula>IF($B24=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:Q20">
-    <cfRule type="expression" dxfId="82" priority="145">
+    <cfRule type="expression" dxfId="83" priority="145">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="146">
+    <cfRule type="expression" dxfId="82" priority="146">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="147">
+    <cfRule type="expression" dxfId="81" priority="147">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="148">
+    <cfRule type="expression" dxfId="80" priority="148">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:T23">
-    <cfRule type="expression" dxfId="78" priority="137">
+    <cfRule type="expression" dxfId="79" priority="137">
       <formula>IF($A23="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="138">
+    <cfRule type="expression" dxfId="78" priority="138">
       <formula>IF($A23="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="139">
+    <cfRule type="expression" dxfId="77" priority="139">
       <formula>IF($A23="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="140">
+    <cfRule type="expression" dxfId="76" priority="140">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q19">
-    <cfRule type="expression" dxfId="74" priority="63">
+    <cfRule type="expression" dxfId="75" priority="63">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="61">
+    <cfRule type="expression" dxfId="74" priority="61">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="62">
+    <cfRule type="expression" dxfId="73" priority="62">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="44">
+    <cfRule type="expression" dxfId="72" priority="44">
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="expression" dxfId="70" priority="43">
+    <cfRule type="expression" dxfId="71" priority="43">
       <formula>IF($A18="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="42">
+    <cfRule type="expression" dxfId="70" priority="42">
       <formula>IF($A18="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="41">
+    <cfRule type="expression" dxfId="69" priority="41">
       <formula>IF($A18="Esforço total atribuído",1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3862,11 +3870,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CD8726-B30B-4400-9738-90F4E3A3D657}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:AA19"/>
+      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,9 +3889,10 @@
     <col min="8" max="8" width="10.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
     <col min="10" max="25" width="11.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,8 +3974,11 @@
       <c r="AA1" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3975,7 +3987,7 @@
         <v>1338</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:AA3" si="0">H3-H4</f>
+        <f t="shared" ref="H2:AB3" si="0">H3-H4</f>
         <v>36</v>
       </c>
       <c r="I2" s="11">
@@ -4054,8 +4066,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4122,11 +4138,15 @@
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA3:AB3" si="1">AA4-AA5</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -4140,87 +4160,91 @@
         <v>1386</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:Y4" si="1">SUM(H5:H37)</f>
+        <f t="shared" ref="H4:Y4" si="2">SUM(H5:H37)</f>
         <v>140</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Z4" s="11">
-        <f t="shared" ref="Z4:AA4" si="2">Z5-Z6</f>
+        <f t="shared" ref="Z4:AB4" si="3">Z5-Z6</f>
         <v>0</v>
       </c>
       <c r="AA4" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -4296,15 +4320,19 @@
         <v>4</v>
       </c>
       <c r="Z5" s="11">
-        <f t="shared" ref="Z5:AA5" si="3">Z6-Z7</f>
+        <f t="shared" ref="Z5:AB5" si="4">Z6-Z7</f>
         <v>0</v>
       </c>
       <c r="AA5" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -4380,15 +4408,19 @@
         <v>20</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" ref="Z6:AA6" si="4">Z7-Z8</f>
+        <f t="shared" ref="Z6:AB6" si="5">Z7-Z8</f>
         <v>0</v>
       </c>
       <c r="AA6" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -4463,15 +4495,19 @@
         <v>4</v>
       </c>
       <c r="Z7" s="11">
-        <f t="shared" ref="Z7:AA7" si="5">Z8-Z9</f>
+        <f t="shared" ref="Z7:AB7" si="6">Z8-Z9</f>
         <v>0</v>
       </c>
       <c r="AA7" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -4546,15 +4582,19 @@
         <v>0</v>
       </c>
       <c r="Z8" s="11">
-        <f t="shared" ref="Z8:AA8" si="6">Z9-Z10</f>
+        <f t="shared" ref="Z8:AB8" si="7">Z9-Z10</f>
         <v>0</v>
       </c>
       <c r="AA8" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -4629,15 +4669,19 @@
         <v>0</v>
       </c>
       <c r="Z9" s="11">
-        <f t="shared" ref="Z9:AA9" si="7">Z10-Z11</f>
+        <f t="shared" ref="Z9:AB9" si="8">Z10-Z11</f>
         <v>0</v>
       </c>
       <c r="AA9" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -4713,15 +4757,19 @@
         <v>0</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" ref="Z10:AA10" si="8">Z11-Z12</f>
+        <f t="shared" ref="Z10:AB10" si="9">Z11-Z12</f>
         <v>0</v>
       </c>
       <c r="AA10" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -4794,15 +4842,19 @@
         <v>0</v>
       </c>
       <c r="Z11" s="11">
-        <f t="shared" ref="Z11:AA11" si="9">Z12-Z13</f>
+        <f t="shared" ref="Z11:AB11" si="10">Z12-Z13</f>
         <v>0</v>
       </c>
       <c r="AA11" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -4875,15 +4927,19 @@
         <v>0</v>
       </c>
       <c r="Z12" s="11">
-        <f t="shared" ref="Z12:AA12" si="10">Z13-Z14</f>
+        <f t="shared" ref="Z12:AB12" si="11">Z13-Z14</f>
         <v>0</v>
       </c>
       <c r="AA12" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -4958,15 +5014,19 @@
         <v>0</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" ref="Z13:AA13" si="11">Z14-Z15</f>
+        <f t="shared" ref="Z13:AB13" si="12">Z14-Z15</f>
         <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -5041,15 +5101,19 @@
         <v>0</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" ref="Z14:AA14" si="12">Z15-Z16</f>
+        <f t="shared" ref="Z14:AB14" si="13">Z15-Z16</f>
         <v>0</v>
       </c>
       <c r="AA14" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
@@ -5124,15 +5188,19 @@
         <v>0</v>
       </c>
       <c r="Z15" s="11">
-        <f t="shared" ref="Z15:AA15" si="13">Z16-Z17</f>
+        <f t="shared" ref="Z15:AB15" si="14">Z16-Z17</f>
         <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>64</v>
       </c>
@@ -5207,15 +5275,19 @@
         <v>0</v>
       </c>
       <c r="Z16" s="11">
-        <f t="shared" ref="Z16:AA16" si="14">Z17-Z18</f>
+        <f t="shared" ref="Z16:AB16" si="15">Z17-Z18</f>
         <v>0</v>
       </c>
       <c r="AA16" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -5288,15 +5360,19 @@
         <v>0</v>
       </c>
       <c r="Z17" s="11">
-        <f t="shared" ref="Z17:AA17" si="15">Z18-Z19</f>
+        <f t="shared" ref="Z17:AB17" si="16">Z18-Z19</f>
         <v>0</v>
       </c>
       <c r="AA17" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -5369,15 +5445,19 @@
         <v>0</v>
       </c>
       <c r="Z18" s="11">
-        <f t="shared" ref="Z18:AA19" si="16">Z19-Z20</f>
+        <f t="shared" ref="Z18:AB19" si="17">Z19-Z20</f>
         <v>0</v>
       </c>
       <c r="AA18" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -5450,15 +5530,19 @@
         <v>0</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F20" s="17"/>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
@@ -5481,8 +5565,9 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F21" s="17"/>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
@@ -5505,8 +5590,9 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F22" s="17"/>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
@@ -5529,8 +5615,9 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F23" s="17"/>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
@@ -5553,8 +5640,9 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -5576,8 +5664,9 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5599,8 +5688,9 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5622,8 +5712,9 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -5645,8 +5736,9 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -5668,8 +5760,9 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5691,8 +5784,9 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -5714,8 +5808,9 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -5737,8 +5832,9 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
@@ -5761,62 +5857,63 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="expression" dxfId="67" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>IF($A13="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="10">
+    <cfRule type="expression" dxfId="67" priority="10">
       <formula>IF($A13="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>IF($A13="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>IF($B13=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A32">
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="64" priority="13">
       <formula>IF($A20="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
+    <cfRule type="expression" dxfId="63" priority="14">
       <formula>IF($A20="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="15">
+    <cfRule type="expression" dxfId="62" priority="15">
       <formula>IF($A20="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="16">
+    <cfRule type="expression" dxfId="61" priority="16">
       <formula>IF($B20=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="59" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7459,72 +7556,72 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A11:A15">
-    <cfRule type="expression" dxfId="51" priority="25">
+    <cfRule type="expression" dxfId="52" priority="25">
       <formula>IF($A11="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
+    <cfRule type="expression" dxfId="51" priority="26">
       <formula>IF($A11="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>IF($A11="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="28">
+    <cfRule type="expression" dxfId="49" priority="28">
       <formula>IF($B11=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>IF($A17="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>IF($A17="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>IF($A17="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>IF($B17=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>IF($A22="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>IF($A22="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>IF($A22="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="41" priority="24">
       <formula>IF($B22=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8953,58 +9050,58 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A11:A13 A23">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>IF($A11="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>IF($A11="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>IF($A11="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>IF($B11=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A21">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>IF($A15="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>IF($A15="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>IF($A15="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>IF($B15=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11068,58 +11165,58 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="expression" dxfId="15" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>IF($A17="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>IF($A17="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>IF($A17="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="32">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>IF($B17=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>IF($A22="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>IF($A22="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF($A22="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>IF($B22=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:Q3">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y3">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF($A3="Esforço total atribuído",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>IF($A3="Disponibilidade restante",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF($A3="Disponibil.total",1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>IF($B3=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11137,12 +11234,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055299C8A5E56DF42BB3A496FAB31A3CA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f48546ee30a9c08b8c56cc99cae99613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="886f8626-7949-4fe5-8403-a629ca357b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da67acbd85d4947d1135fd4f9dd5422" ns2:_="">
     <xsd:import namespace="886f8626-7949-4fe5-8403-a629ca357b95"/>
@@ -11286,6 +11377,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
   <ds:schemaRefs>
@@ -11295,15 +11392,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AD39B2-FED1-46F1-B570-2B06EBE1DD70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11321,6 +11409,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{886666a6-a8d2-4604-a002-95b622cb7e18}" enabled="0" method="" siteId="{886666a6-a8d2-4604-a002-95b622cb7e18}" removed="1"/>

--- a/planilha-mari-5/TIN Collaboration teste 2.xlsx
+++ b/planilha-mari-5/TIN Collaboration teste 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolidar-planilha-weg\planilha-mari-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623819DD-1A95-45C9-B44A-0A84C79DF25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577A975-261C-4E01-A4D7-6CA6E31F87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <t>kkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
   </si>
   <si>
-    <t>mar/252</t>
+    <t>mar/26</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2359,7 @@
     <tableColumn id="25" xr3:uid="{C5C6F9DA-C654-4668-9412-C46C2E27CCB5}" name="dez/25" dataDxfId="194"/>
     <tableColumn id="17" xr3:uid="{B00F94A8-6EA1-4A54-B1C0-9BAF7B1B236C}" name="jan/26" dataDxfId="193"/>
     <tableColumn id="27" xr3:uid="{8C9FB46B-37EF-4485-9F51-6E4030143374}" name="fev/26" dataDxfId="192"/>
-    <tableColumn id="28" xr3:uid="{FA13D833-8A99-4ED4-BF00-BBD42CFE6F02}" name="mar/252" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{E3FE6030-8DE0-4359-B4A0-25451CBC36D0}" name="mar/26" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3874,7 +3874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,7 +3889,7 @@
     <col min="8" max="8" width="10.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
     <col min="10" max="25" width="11.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -11234,6 +11234,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055299C8A5E56DF42BB3A496FAB31A3CA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f48546ee30a9c08b8c56cc99cae99613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="886f8626-7949-4fe5-8403-a629ca357b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da67acbd85d4947d1135fd4f9dd5422" ns2:_="">
     <xsd:import namespace="886f8626-7949-4fe5-8403-a629ca357b95"/>
@@ -11377,12 +11383,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
   <ds:schemaRefs>
@@ -11392,6 +11392,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AD39B2-FED1-46F1-B570-2B06EBE1DD70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11409,15 +11418,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{886666a6-a8d2-4604-a002-95b622cb7e18}" enabled="0" method="" siteId="{886666a6-a8d2-4604-a002-95b622cb7e18}" removed="1"/>
